--- a/resource/player/wizardOfLegendPlayerSpritesFrame.xlsx
+++ b/resource/player/wizardOfLegendPlayerSpritesFrame.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\WizardOfLegend\image\player\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\WizardOfLegend\resource\player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2817A504-3B96-45D7-A779-105BCDFC1722}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3115C5E-2AAD-4C31-9AF0-D4A04D15C917}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{20E1D786-5607-40E7-ADE5-F419BEFF133C}"/>
   </bookViews>
@@ -225,42 +225,11 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -313,32 +282,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
@@ -350,34 +393,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -694,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE214E8D-9E6E-4694-B3F8-0F44F437B42A}">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1040,581 +1062,577 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>72</v>
+        <v>30</v>
+      </c>
+      <c r="B17" s="2">
+        <v>179</v>
       </c>
       <c r="C17">
-        <v>73</v>
-      </c>
-      <c r="D17">
-        <v>74</v>
+        <v>180</v>
+      </c>
+      <c r="D17" s="2">
+        <v>181</v>
       </c>
       <c r="E17">
-        <v>75</v>
-      </c>
-      <c r="F17">
-        <v>76</v>
+        <v>182</v>
+      </c>
+      <c r="F17" s="2">
+        <v>183</v>
       </c>
       <c r="G17">
-        <v>77</v>
-      </c>
-      <c r="H17">
-        <v>78</v>
+        <v>184</v>
+      </c>
+      <c r="H17" s="2">
+        <v>185</v>
       </c>
       <c r="I17">
-        <v>79</v>
-      </c>
-      <c r="J17">
-        <v>80</v>
+        <v>186</v>
+      </c>
+      <c r="J17" s="2">
+        <v>187</v>
       </c>
       <c r="K17">
-        <v>81</v>
-      </c>
-      <c r="L17">
-        <v>82</v>
-      </c>
-      <c r="N17" t="s">
+        <v>188</v>
+      </c>
+      <c r="L17" s="2">
+        <v>189</v>
+      </c>
+      <c r="M17">
+        <v>190</v>
+      </c>
+      <c r="N17" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>202</v>
       </c>
       <c r="C18">
-        <v>84</v>
-      </c>
-      <c r="D18">
-        <v>85</v>
+        <v>201</v>
+      </c>
+      <c r="D18" s="2">
+        <v>200</v>
       </c>
       <c r="E18">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="F18">
-        <v>87</v>
-      </c>
-      <c r="G18">
-        <v>88</v>
+        <v>198</v>
+      </c>
+      <c r="G18" s="2">
+        <v>197</v>
       </c>
       <c r="H18">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c r="I18">
-        <v>90</v>
-      </c>
-      <c r="J18">
-        <v>91</v>
+        <v>195</v>
+      </c>
+      <c r="J18" s="2">
+        <v>194</v>
       </c>
       <c r="K18">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="L18">
-        <v>93</v>
-      </c>
-      <c r="N18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="M18" s="2">
+        <v>191</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C19">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="D19">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="E19">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="F19">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="G19">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="I19">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="J19">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="K19">
-        <v>103</v>
+        <v>81</v>
+      </c>
+      <c r="L19">
+        <v>82</v>
       </c>
       <c r="N19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C20">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="D20">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="E20">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F20">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="G20">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="H20">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="I20">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="J20">
-        <v>112</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" s="2"/>
-      <c r="P20" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="K20">
+        <v>92</v>
+      </c>
+      <c r="L20">
+        <v>93</v>
+      </c>
+      <c r="N20" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>94</v>
+      </c>
+      <c r="C21">
+        <v>95</v>
+      </c>
+      <c r="D21">
+        <v>96</v>
+      </c>
+      <c r="E21">
+        <v>97</v>
+      </c>
+      <c r="F21">
+        <v>98</v>
+      </c>
+      <c r="G21">
+        <v>99</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
+      </c>
+      <c r="I21">
+        <v>101</v>
+      </c>
+      <c r="J21">
+        <v>102</v>
+      </c>
+      <c r="K21">
+        <v>103</v>
+      </c>
+      <c r="N21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11">
+        <v>104</v>
+      </c>
+      <c r="C22" s="11">
+        <v>105</v>
+      </c>
+      <c r="D22" s="11">
+        <v>106</v>
+      </c>
+      <c r="E22" s="11">
+        <v>107</v>
+      </c>
+      <c r="F22" s="11">
+        <v>108</v>
+      </c>
+      <c r="G22" s="11">
+        <v>109</v>
+      </c>
+      <c r="H22" s="11">
+        <v>110</v>
+      </c>
+      <c r="I22" s="11">
+        <v>111</v>
+      </c>
+      <c r="J22" s="11">
+        <v>112</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" s="13"/>
+    </row>
+    <row r="23" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21">
+      <c r="B23" s="2">
         <v>113</v>
       </c>
-      <c r="C21">
+      <c r="C23" s="2">
         <v>114</v>
       </c>
-      <c r="D21">
+      <c r="D23" s="2">
         <v>115</v>
       </c>
-      <c r="E21">
+      <c r="E23" s="2">
         <v>116</v>
       </c>
-      <c r="F21">
+      <c r="F23" s="2">
         <v>117</v>
       </c>
-      <c r="G21">
+      <c r="G23" s="2">
         <v>118</v>
       </c>
-      <c r="H21">
+      <c r="H23" s="2">
         <v>119</v>
       </c>
-      <c r="I21">
+      <c r="I23" s="2">
         <v>120</v>
       </c>
-      <c r="J21">
+      <c r="J23" s="2">
         <v>121</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="N23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O21" s="5"/>
-      <c r="P21" s="6"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22">
+      <c r="B24" s="2">
         <v>130</v>
       </c>
-      <c r="C22">
+      <c r="C24" s="2">
         <v>129</v>
       </c>
-      <c r="D22">
+      <c r="D24" s="2">
         <v>128</v>
       </c>
-      <c r="E22">
+      <c r="E24" s="2">
         <v>127</v>
       </c>
-      <c r="F22">
+      <c r="F24" s="2">
         <v>126</v>
       </c>
-      <c r="G22">
+      <c r="G24" s="2">
         <v>125</v>
       </c>
-      <c r="H22">
+      <c r="H24" s="2">
         <v>124</v>
       </c>
-      <c r="I22">
+      <c r="I24" s="2">
         <v>123</v>
       </c>
-      <c r="J22">
+      <c r="J24" s="2">
         <v>122</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="N24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O22" s="5"/>
-      <c r="P22" s="6"/>
-    </row>
-    <row r="23" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B23">
+      <c r="B25" s="14">
         <v>131</v>
       </c>
-      <c r="C23">
+      <c r="C25" s="14">
         <v>132</v>
       </c>
-      <c r="D23">
+      <c r="D25" s="14">
         <v>133</v>
       </c>
-      <c r="E23">
+      <c r="E25" s="14">
         <v>134</v>
       </c>
-      <c r="F23">
+      <c r="F25" s="14">
         <v>135</v>
       </c>
-      <c r="G23">
+      <c r="G25" s="14">
         <v>136</v>
       </c>
-      <c r="H23">
+      <c r="H25" s="14">
         <v>137</v>
       </c>
-      <c r="I23">
+      <c r="I25" s="14">
         <v>138</v>
       </c>
-      <c r="J23">
+      <c r="J25" s="14">
         <v>139</v>
       </c>
-      <c r="K23">
+      <c r="K25" s="14">
         <v>140</v>
       </c>
-      <c r="L23">
+      <c r="L25" s="14">
         <v>141</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="N25" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="O23" s="8"/>
-      <c r="P23" s="9"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24">
-        <v>142</v>
-      </c>
-      <c r="C24">
-        <v>143</v>
-      </c>
-      <c r="D24">
-        <v>144</v>
-      </c>
-      <c r="E24">
-        <v>145</v>
-      </c>
-      <c r="F24">
-        <v>146</v>
-      </c>
-      <c r="G24">
-        <v>147</v>
-      </c>
-      <c r="H24">
-        <v>148</v>
-      </c>
-      <c r="I24">
-        <v>149</v>
-      </c>
-      <c r="J24">
-        <v>150</v>
-      </c>
-      <c r="N24" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="O24" s="12"/>
-      <c r="P24" s="13"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>151</v>
-      </c>
-      <c r="C25">
-        <v>152</v>
-      </c>
-      <c r="D25">
-        <v>153</v>
-      </c>
-      <c r="E25">
-        <v>154</v>
-      </c>
-      <c r="F25">
-        <v>155</v>
-      </c>
-      <c r="G25">
-        <v>156</v>
-      </c>
-      <c r="H25">
-        <v>157</v>
-      </c>
-      <c r="I25">
-        <v>158</v>
-      </c>
-      <c r="N25" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O25" s="15"/>
       <c r="P25" s="16"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C26">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D26">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="E26">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="F26">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="G26">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="H26">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="I26">
-        <v>159</v>
-      </c>
-      <c r="N26" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J26">
+        <v>150</v>
+      </c>
+      <c r="N26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O26" s="15"/>
-      <c r="P26" s="16"/>
-    </row>
-    <row r="27" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O26" s="6"/>
+      <c r="P26" s="7"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C27">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D27">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="E27">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="F27">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="G27">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="H27">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="I27">
-        <v>174</v>
-      </c>
-      <c r="J27">
-        <v>175</v>
-      </c>
-      <c r="K27">
-        <v>176</v>
-      </c>
-      <c r="L27">
-        <v>177</v>
-      </c>
-      <c r="M27">
-        <v>178</v>
-      </c>
-      <c r="N27" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="N27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O27" s="18"/>
-      <c r="P27" s="19"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="5">
-        <v>179</v>
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>166</v>
       </c>
       <c r="C28">
-        <v>180</v>
-      </c>
-      <c r="D28" s="5">
-        <v>181</v>
+        <v>165</v>
+      </c>
+      <c r="D28">
+        <v>164</v>
       </c>
       <c r="E28">
-        <v>182</v>
-      </c>
-      <c r="F28" s="5">
-        <v>183</v>
+        <v>163</v>
+      </c>
+      <c r="F28">
+        <v>162</v>
       </c>
       <c r="G28">
-        <v>184</v>
-      </c>
-      <c r="H28" s="5">
-        <v>185</v>
+        <v>161</v>
+      </c>
+      <c r="H28">
+        <v>160</v>
       </c>
       <c r="I28">
-        <v>186</v>
-      </c>
-      <c r="J28" s="5">
-        <v>187</v>
-      </c>
-      <c r="K28">
-        <v>188</v>
-      </c>
-      <c r="L28" s="5">
-        <v>189</v>
-      </c>
-      <c r="M28">
-        <v>190</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" s="6"/>
+      <c r="P28" s="7"/>
+    </row>
+    <row r="29" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="C29">
-        <v>201</v>
-      </c>
-      <c r="D29" s="5">
-        <v>200</v>
+        <v>168</v>
+      </c>
+      <c r="D29">
+        <v>169</v>
       </c>
       <c r="E29">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="F29">
-        <v>198</v>
-      </c>
-      <c r="G29" s="5">
-        <v>197</v>
+        <v>171</v>
+      </c>
+      <c r="G29">
+        <v>172</v>
       </c>
       <c r="H29">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="I29">
-        <v>195</v>
-      </c>
-      <c r="J29" s="5">
-        <v>194</v>
+        <v>174</v>
+      </c>
+      <c r="J29">
+        <v>175</v>
       </c>
       <c r="K29">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="L29">
-        <v>192</v>
-      </c>
-      <c r="M29" s="5">
-        <v>191</v>
-      </c>
-      <c r="N29" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32">
-        <v>204</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M29">
+        <v>178</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" s="9"/>
+      <c r="P29" s="10"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>206</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
+      <c r="B38">
         <v>207</v>
       </c>
-      <c r="C36">
+      <c r="C38">
         <v>208</v>
       </c>
-      <c r="D36">
+      <c r="D38">
         <v>209</v>
       </c>
-      <c r="E36">
+      <c r="E38">
         <v>210</v>
       </c>
-      <c r="F36">
+      <c r="F38">
         <v>211</v>
       </c>
-      <c r="G36">
+      <c r="G38">
         <v>212</v>
       </c>
-      <c r="H36">
+      <c r="H38">
         <v>213</v>
       </c>
-      <c r="I36">
+      <c r="I38">
         <v>214</v>
       </c>
-      <c r="J36">
+      <c r="J38">
         <v>215</v>
       </c>
-      <c r="K36">
+      <c r="K38">
         <v>216</v>
       </c>
     </row>

--- a/resource/player/wizardOfLegendPlayerSpritesFrame.xlsx
+++ b/resource/player/wizardOfLegendPlayerSpritesFrame.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\WizardOfLegend\resource\player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3115C5E-2AAD-4C31-9AF0-D4A04D15C917}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A8A1FC-F844-4543-AB24-636F196D8251}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{20E1D786-5607-40E7-ADE5-F419BEFF133C}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>wizard sprites frame</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +185,22 @@
   </si>
   <si>
     <t>지형충돌범위는 중심에서 -16한 점을 중점으로 가로 32 세로 32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격모션F_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격모션R_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격모션L_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격모션B_05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -716,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE214E8D-9E6E-4694-B3F8-0F44F437B42A}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1569,7 +1585,7 @@
       <c r="O29" s="9"/>
       <c r="P29" s="10"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1577,7 +1593,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1585,7 +1601,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1593,7 +1609,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1601,7 +1617,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1634,6 +1650,137 @@
       </c>
       <c r="K38">
         <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>217</v>
+      </c>
+      <c r="C40">
+        <v>218</v>
+      </c>
+      <c r="D40">
+        <v>219</v>
+      </c>
+      <c r="E40">
+        <v>220</v>
+      </c>
+      <c r="F40">
+        <v>221</v>
+      </c>
+      <c r="G40">
+        <v>222</v>
+      </c>
+      <c r="H40">
+        <v>223</v>
+      </c>
+      <c r="I40">
+        <v>224</v>
+      </c>
+      <c r="J40">
+        <v>225</v>
+      </c>
+      <c r="K40">
+        <v>226</v>
+      </c>
+      <c r="L40">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>228</v>
+      </c>
+      <c r="C41">
+        <v>229</v>
+      </c>
+      <c r="D41">
+        <v>230</v>
+      </c>
+      <c r="E41">
+        <v>231</v>
+      </c>
+      <c r="F41">
+        <v>232</v>
+      </c>
+      <c r="G41">
+        <v>233</v>
+      </c>
+      <c r="H41">
+        <v>234</v>
+      </c>
+      <c r="I41">
+        <v>235</v>
+      </c>
+      <c r="J41">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>245</v>
+      </c>
+      <c r="C42">
+        <v>244</v>
+      </c>
+      <c r="D42">
+        <v>243</v>
+      </c>
+      <c r="E42">
+        <v>242</v>
+      </c>
+      <c r="F42">
+        <v>241</v>
+      </c>
+      <c r="G42">
+        <v>240</v>
+      </c>
+      <c r="H42">
+        <v>239</v>
+      </c>
+      <c r="I42">
+        <v>238</v>
+      </c>
+      <c r="J42">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>246</v>
+      </c>
+      <c r="C43">
+        <v>247</v>
+      </c>
+      <c r="D43">
+        <v>248</v>
+      </c>
+      <c r="E43">
+        <v>249</v>
+      </c>
+      <c r="F43">
+        <v>250</v>
+      </c>
+      <c r="G43">
+        <v>251</v>
+      </c>
+      <c r="H43">
+        <v>252</v>
+      </c>
+      <c r="I43">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
